--- a/DCIT 23 - IT 1A/DCIT 23 - IT 1A.xlsx
+++ b/DCIT 23 - IT 1A/DCIT 23 - IT 1A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 23 - IT 1A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6997DE80-1A28-4748-92C4-7E605D43EFE0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A27A8B6-0E14-4863-BEF9-4A9AE1C7C598}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="days">'[1]GRADING SETTINGS'!$I$3:$I$8</definedName>
     <definedName name="finalExamLab">'RAW GRADES'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">BACKPAGE!$A$1:$H$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'DEPT CHAIR'!$A$6:$L$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'DEPT CHAIR'!$A$2:$L$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SEMESTRAL GRADE'!$A$1:$F$72</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -2608,6 +2608,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3136,93 +3144,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3230,6 +3155,81 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4324,85 +4324,85 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:19">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168" t="s">
+      <c r="A6" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="169"/>
+      <c r="C6" s="170" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169" t="s">
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="169"/>
+      <c r="G6" s="171"/>
       <c r="H6" s="1">
         <v>3</v>
       </c>
@@ -4412,18 +4412,18 @@
       <c r="J6" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="170" t="s">
+      <c r="K6" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="170"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="173"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="3" t="s">
         <v>161</v>
       </c>
@@ -4433,10 +4433,10 @@
       <c r="E7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="5">
         <v>0</v>
       </c>
@@ -4446,18 +4446,18 @@
       <c r="J7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="174" t="s">
+      <c r="K7" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="174"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="177"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="8" t="s">
         <v>117</v>
       </c>
@@ -4467,10 +4467,10 @@
       <c r="E8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="178"/>
+      <c r="G8" s="180"/>
       <c r="H8" s="10">
         <f>SUM(H6:H7)</f>
         <v>3</v>
@@ -4481,64 +4481,64 @@
       <c r="J8" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="K8" s="178" t="s">
+      <c r="K8" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="178"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="182" t="s">
+      <c r="C9" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="183" t="s">
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="183" t="s">
+      <c r="H9" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="157" t="s">
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="157" t="s">
+      <c r="L9" s="160"/>
+      <c r="M9" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="158"/>
+      <c r="N9" s="160"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A10" s="180"/>
-      <c r="B10" s="181"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="112">
@@ -4558,19 +4558,19 @@
         <v>176</v>
       </c>
       <c r="G11" s="113"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="161"/>
-      <c r="P11" s="152" t="s">
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="163"/>
+      <c r="P11" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="154"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="156"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="112">
@@ -4590,21 +4590,21 @@
         <v>180</v>
       </c>
       <c r="G12" s="113"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
       <c r="P12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="141" t="s">
+      <c r="Q12" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="141"/>
-      <c r="S12" s="142"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="144"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="112">
@@ -4624,21 +4624,21 @@
         <v>184</v>
       </c>
       <c r="G13" s="113"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
       <c r="P13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="141" t="s">
+      <c r="Q13" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="R13" s="141"/>
-      <c r="S13" s="142"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="144"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="112">
@@ -4658,21 +4658,21 @@
         <v>188</v>
       </c>
       <c r="G14" s="113"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
       <c r="P14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="141" t="s">
+      <c r="Q14" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="R14" s="141"/>
-      <c r="S14" s="142"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="144"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="112">
@@ -4692,21 +4692,21 @@
         <v>193</v>
       </c>
       <c r="G15" s="113"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
       <c r="P15" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="141" t="s">
+      <c r="Q15" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="R15" s="141"/>
-      <c r="S15" s="142"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="144"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="112">
@@ -4726,21 +4726,21 @@
         <v>197</v>
       </c>
       <c r="G16" s="113"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
       <c r="P16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="155" t="s">
+      <c r="Q16" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="R16" s="155"/>
-      <c r="S16" s="156"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="158"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="112">
@@ -4760,21 +4760,21 @@
         <v>201</v>
       </c>
       <c r="G17" s="113"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
       <c r="P17" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="Q17" s="141" t="s">
+      <c r="Q17" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="R17" s="141"/>
-      <c r="S17" s="142"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="144"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="112">
@@ -4794,21 +4794,21 @@
         <v>184</v>
       </c>
       <c r="G18" s="113"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
       <c r="P18" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="R18" s="164"/>
-      <c r="S18" s="165"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="167"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="112">
@@ -4828,13 +4828,13 @@
         <v>184</v>
       </c>
       <c r="G19" s="113"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="112">
@@ -4854,13 +4854,13 @@
         <v>211</v>
       </c>
       <c r="G20" s="113"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="112">
@@ -4880,13 +4880,13 @@
         <v>193</v>
       </c>
       <c r="G21" s="113"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
       <c r="Q21" s="79" t="s">
         <v>111</v>
       </c>
@@ -4909,13 +4909,13 @@
         <v>188</v>
       </c>
       <c r="G22" s="113"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
       <c r="Q22" s="80">
         <v>0</v>
       </c>
@@ -4941,13 +4941,13 @@
         <v>201</v>
       </c>
       <c r="G23" s="113"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
       <c r="Q23" s="81">
         <v>70</v>
       </c>
@@ -4973,13 +4973,13 @@
         <v>224</v>
       </c>
       <c r="G24" s="113"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
       <c r="Q24" s="81">
         <v>73.34</v>
       </c>
@@ -5005,13 +5005,13 @@
         <v>224</v>
       </c>
       <c r="G25" s="113"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
       <c r="Q25" s="81">
         <v>76.680000000000007</v>
       </c>
@@ -5037,13 +5037,13 @@
         <v>189</v>
       </c>
       <c r="G26" s="113"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
       <c r="Q26" s="81">
         <v>80.02</v>
       </c>
@@ -5069,13 +5069,13 @@
         <v>230</v>
       </c>
       <c r="G27" s="113"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
       <c r="Q27" s="81">
         <v>83.36</v>
       </c>
@@ -5101,13 +5101,13 @@
         <v>180</v>
       </c>
       <c r="G28" s="113"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
       <c r="Q28" s="81">
         <v>86.7</v>
       </c>
@@ -5133,13 +5133,13 @@
         <v>184</v>
       </c>
       <c r="G29" s="113"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
       <c r="Q29" s="81">
         <v>90.04</v>
       </c>
@@ -5165,13 +5165,13 @@
         <v>201</v>
       </c>
       <c r="G30" s="113"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
       <c r="Q30" s="81">
         <v>93.38</v>
       </c>
@@ -5197,13 +5197,13 @@
         <v>193</v>
       </c>
       <c r="G31" s="113"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
       <c r="Q31" s="80"/>
       <c r="R31" s="80"/>
     </row>
@@ -5225,13 +5225,13 @@
         <v>244</v>
       </c>
       <c r="G32" s="113"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
       <c r="Q32" s="80">
         <v>96.72</v>
       </c>
@@ -5257,13 +5257,13 @@
         <v>176</v>
       </c>
       <c r="G33" s="113"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="112">
@@ -5283,13 +5283,13 @@
         <v>189</v>
       </c>
       <c r="G34" s="113"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="112">
@@ -5309,13 +5309,13 @@
         <v>197</v>
       </c>
       <c r="G35" s="113"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="147"/>
+      <c r="N35" s="147"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="112">
@@ -5335,13 +5335,13 @@
         <v>257</v>
       </c>
       <c r="G36" s="113"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="145"/>
-      <c r="N36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="112">
@@ -5361,13 +5361,13 @@
         <v>231</v>
       </c>
       <c r="G37" s="113"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="112">
@@ -5387,13 +5387,13 @@
         <v>201</v>
       </c>
       <c r="G38" s="113"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="112">
@@ -5413,13 +5413,13 @@
         <v>267</v>
       </c>
       <c r="G39" s="113"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="112">
@@ -5439,13 +5439,13 @@
         <v>257</v>
       </c>
       <c r="G40" s="113"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="112">
@@ -5465,13 +5465,13 @@
         <v>180</v>
       </c>
       <c r="G41" s="113"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="112">
@@ -5491,13 +5491,13 @@
         <v>197</v>
       </c>
       <c r="G42" s="113"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="112">
@@ -5517,13 +5517,13 @@
         <v>224</v>
       </c>
       <c r="G43" s="113"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="112">
@@ -5543,13 +5543,13 @@
         <v>184</v>
       </c>
       <c r="G44" s="113"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="145"/>
-      <c r="N44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="112">
@@ -5569,13 +5569,13 @@
         <v>197</v>
       </c>
       <c r="G45" s="113"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="145"/>
-      <c r="N45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="112">
@@ -5595,13 +5595,13 @@
         <v>193</v>
       </c>
       <c r="G46" s="113"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="145"/>
-      <c r="N46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="112">
@@ -5621,13 +5621,13 @@
         <v>211</v>
       </c>
       <c r="G47" s="113"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
-      <c r="J47" s="143"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="112">
@@ -5647,13 +5647,13 @@
         <v>193</v>
       </c>
       <c r="G48" s="113"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="143"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="145"/>
-      <c r="N48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="112">
@@ -5673,13 +5673,13 @@
         <v>321</v>
       </c>
       <c r="G49" s="113"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="146"/>
+      <c r="L49" s="146"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="112">
@@ -5699,13 +5699,13 @@
         <v>267</v>
       </c>
       <c r="G50" s="113"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="143"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="144"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="146"/>
+      <c r="L50" s="146"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="112">
@@ -5725,13 +5725,13 @@
         <v>193</v>
       </c>
       <c r="G51" s="113"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="145"/>
-      <c r="N51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="146"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="112">
@@ -5751,13 +5751,13 @@
         <v>189</v>
       </c>
       <c r="G52" s="113"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="145"/>
-      <c r="N52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="112">
@@ -5777,13 +5777,13 @@
         <v>307</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="143"/>
-      <c r="K53" s="144"/>
-      <c r="L53" s="144"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="147"/>
+      <c r="N53" s="147"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="12">
@@ -5803,13 +5803,13 @@
         <v>230</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="144"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="147"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="12">
@@ -5821,13 +5821,13 @@
       <c r="E55" s="128"/>
       <c r="F55" s="128"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="144"/>
-      <c r="M55" s="145"/>
-      <c r="N55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="146"/>
+      <c r="M55" s="147"/>
+      <c r="N55" s="147"/>
     </row>
     <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="12">
@@ -5839,13 +5839,13 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="144"/>
-      <c r="L56" s="144"/>
-      <c r="M56" s="145"/>
-      <c r="N56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="146"/>
+      <c r="L56" s="146"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
     </row>
     <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="12">
@@ -5857,13 +5857,13 @@
       <c r="E57" s="71"/>
       <c r="F57" s="71"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="143"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="146"/>
+      <c r="L57" s="146"/>
+      <c r="M57" s="147"/>
+      <c r="N57" s="147"/>
     </row>
     <row r="58" spans="1:14" hidden="1">
       <c r="A58" s="12">
@@ -5875,13 +5875,13 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
-      <c r="K58" s="144"/>
-      <c r="L58" s="144"/>
-      <c r="M58" s="145"/>
-      <c r="N58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="146"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="147"/>
     </row>
     <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="12">
@@ -5893,13 +5893,13 @@
       <c r="E59" s="71"/>
       <c r="F59" s="71"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="144"/>
-      <c r="L59" s="144"/>
-      <c r="M59" s="145"/>
-      <c r="N59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="146"/>
+      <c r="L59" s="146"/>
+      <c r="M59" s="147"/>
+      <c r="N59" s="147"/>
     </row>
     <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="12">
@@ -5911,13 +5911,13 @@
       <c r="E60" s="71"/>
       <c r="F60" s="71"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="145"/>
-      <c r="N60" s="145"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="146"/>
+      <c r="M60" s="147"/>
+      <c r="N60" s="147"/>
     </row>
     <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="12">
@@ -5929,13 +5929,13 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="144"/>
-      <c r="L61" s="144"/>
-      <c r="M61" s="145"/>
-      <c r="N61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="146"/>
+      <c r="L61" s="146"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
     </row>
     <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="12">
@@ -5947,13 +5947,13 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="143"/>
-      <c r="I62" s="143"/>
-      <c r="J62" s="143"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="145"/>
-      <c r="N62" s="145"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="146"/>
+      <c r="M62" s="147"/>
+      <c r="N62" s="147"/>
     </row>
     <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="12">
@@ -5965,13 +5965,13 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="143"/>
-      <c r="I63" s="143"/>
-      <c r="J63" s="143"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="144"/>
-      <c r="M63" s="145"/>
-      <c r="N63" s="145"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="146"/>
+      <c r="M63" s="147"/>
+      <c r="N63" s="147"/>
     </row>
     <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="12">
@@ -5983,13 +5983,13 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143"/>
-      <c r="J64" s="143"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="144"/>
-      <c r="M64" s="145"/>
-      <c r="N64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="145"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="146"/>
+      <c r="M64" s="147"/>
+      <c r="N64" s="147"/>
     </row>
     <row r="65" spans="1:14" hidden="1">
       <c r="A65" s="12">
@@ -6001,13 +6001,13 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="145"/>
-      <c r="N65" s="145"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="145"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="146"/>
+      <c r="L65" s="146"/>
+      <c r="M65" s="147"/>
+      <c r="N65" s="147"/>
     </row>
     <row r="66" spans="1:14" hidden="1">
       <c r="A66" s="12">
@@ -6019,13 +6019,13 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="143"/>
-      <c r="I66" s="143"/>
-      <c r="J66" s="143"/>
-      <c r="K66" s="144"/>
-      <c r="L66" s="144"/>
-      <c r="M66" s="145"/>
-      <c r="N66" s="145"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="145"/>
+      <c r="J66" s="145"/>
+      <c r="K66" s="146"/>
+      <c r="L66" s="146"/>
+      <c r="M66" s="147"/>
+      <c r="N66" s="147"/>
     </row>
     <row r="67" spans="1:14" hidden="1">
       <c r="A67" s="12">
@@ -6037,13 +6037,13 @@
       <c r="E67" s="13"/>
       <c r="F67" s="71"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="143"/>
-      <c r="I67" s="143"/>
-      <c r="J67" s="143"/>
-      <c r="K67" s="144"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="145"/>
-      <c r="N67" s="145"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="145"/>
+      <c r="J67" s="145"/>
+      <c r="K67" s="146"/>
+      <c r="L67" s="146"/>
+      <c r="M67" s="147"/>
+      <c r="N67" s="147"/>
     </row>
     <row r="68" spans="1:14" hidden="1">
       <c r="A68" s="12">
@@ -6055,13 +6055,13 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="143"/>
-      <c r="I68" s="143"/>
-      <c r="J68" s="143"/>
-      <c r="K68" s="144"/>
-      <c r="L68" s="144"/>
-      <c r="M68" s="145"/>
-      <c r="N68" s="145"/>
+      <c r="H68" s="145"/>
+      <c r="I68" s="145"/>
+      <c r="J68" s="145"/>
+      <c r="K68" s="146"/>
+      <c r="L68" s="146"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="147"/>
     </row>
     <row r="69" spans="1:14" hidden="1">
       <c r="A69" s="12">
@@ -6073,13 +6073,13 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="143"/>
-      <c r="J69" s="143"/>
-      <c r="K69" s="144"/>
-      <c r="L69" s="144"/>
-      <c r="M69" s="145"/>
-      <c r="N69" s="145"/>
+      <c r="H69" s="145"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="145"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146"/>
+      <c r="M69" s="147"/>
+      <c r="N69" s="147"/>
     </row>
     <row r="70" spans="1:14" hidden="1">
       <c r="A70" s="12">
@@ -6091,13 +6091,13 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="143"/>
-      <c r="I70" s="143"/>
-      <c r="J70" s="143"/>
-      <c r="K70" s="144"/>
-      <c r="L70" s="144"/>
-      <c r="M70" s="145"/>
-      <c r="N70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="147"/>
     </row>
     <row r="71" spans="1:14" hidden="1">
       <c r="A71" s="12">
@@ -6109,13 +6109,13 @@
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
-      <c r="K71" s="144"/>
-      <c r="L71" s="144"/>
-      <c r="M71" s="145"/>
-      <c r="N71" s="145"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="147"/>
+      <c r="N71" s="147"/>
     </row>
   </sheetData>
   <sheetProtection sort="0"/>
@@ -6498,9 +6498,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:BI70"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG35" sqref="BG35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6522,296 +6522,296 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="186"/>
-      <c r="AK2" s="186"/>
-      <c r="AL2" s="186"/>
-      <c r="AM2" s="186"/>
-      <c r="AN2" s="186"/>
-      <c r="AO2" s="186"/>
-      <c r="AP2" s="186"/>
-      <c r="AQ2" s="186"/>
-      <c r="AR2" s="186"/>
-      <c r="AS2" s="186"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="186"/>
-      <c r="AW2" s="186"/>
-      <c r="AX2" s="186"/>
-      <c r="AY2" s="186"/>
-      <c r="AZ2" s="186"/>
-      <c r="BA2" s="186"/>
-      <c r="BB2" s="186"/>
-      <c r="BC2" s="186"/>
-      <c r="BD2" s="186"/>
-      <c r="BE2" s="186"/>
-      <c r="BF2" s="186"/>
-      <c r="BG2" s="186"/>
-      <c r="BH2" s="186"/>
-      <c r="BI2" s="186"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="188"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="188"/>
+      <c r="AO2" s="188"/>
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+      <c r="AT2" s="188"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="188"/>
+      <c r="AZ2" s="188"/>
+      <c r="BA2" s="188"/>
+      <c r="BB2" s="188"/>
+      <c r="BC2" s="188"/>
+      <c r="BD2" s="188"/>
+      <c r="BE2" s="188"/>
+      <c r="BF2" s="188"/>
+      <c r="BG2" s="188"/>
+      <c r="BH2" s="188"/>
+      <c r="BI2" s="188"/>
     </row>
     <row r="3" spans="1:61" ht="15" customHeight="1">
-      <c r="A3" s="186"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="186"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="186"/>
-      <c r="AJ3" s="186"/>
-      <c r="AK3" s="186"/>
-      <c r="AL3" s="186"/>
-      <c r="AM3" s="186"/>
-      <c r="AN3" s="186"/>
-      <c r="AO3" s="186"/>
-      <c r="AP3" s="186"/>
-      <c r="AQ3" s="186"/>
-      <c r="AR3" s="186"/>
-      <c r="AS3" s="186"/>
-      <c r="AT3" s="186"/>
-      <c r="AU3" s="186"/>
-      <c r="AV3" s="186"/>
-      <c r="AW3" s="186"/>
-      <c r="AX3" s="186"/>
-      <c r="AY3" s="186"/>
-      <c r="AZ3" s="186"/>
-      <c r="BA3" s="186"/>
-      <c r="BB3" s="186"/>
-      <c r="BC3" s="186"/>
-      <c r="BD3" s="186"/>
-      <c r="BE3" s="186"/>
-      <c r="BF3" s="186"/>
-      <c r="BG3" s="186"/>
-      <c r="BH3" s="186"/>
-      <c r="BI3" s="186"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="188"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="188"/>
+      <c r="AJ3" s="188"/>
+      <c r="AK3" s="188"/>
+      <c r="AL3" s="188"/>
+      <c r="AM3" s="188"/>
+      <c r="AN3" s="188"/>
+      <c r="AO3" s="188"/>
+      <c r="AP3" s="188"/>
+      <c r="AQ3" s="188"/>
+      <c r="AR3" s="188"/>
+      <c r="AS3" s="188"/>
+      <c r="AT3" s="188"/>
+      <c r="AU3" s="188"/>
+      <c r="AV3" s="188"/>
+      <c r="AW3" s="188"/>
+      <c r="AX3" s="188"/>
+      <c r="AY3" s="188"/>
+      <c r="AZ3" s="188"/>
+      <c r="BA3" s="188"/>
+      <c r="BB3" s="188"/>
+      <c r="BC3" s="188"/>
+      <c r="BD3" s="188"/>
+      <c r="BE3" s="188"/>
+      <c r="BF3" s="188"/>
+      <c r="BG3" s="188"/>
+      <c r="BH3" s="188"/>
+      <c r="BI3" s="188"/>
     </row>
     <row r="4" spans="1:61" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208"/>
-      <c r="O5" s="208"/>
-      <c r="P5" s="208"/>
-      <c r="Q5" s="208"/>
-      <c r="R5" s="208"/>
-      <c r="S5" s="208"/>
-      <c r="T5" s="208"/>
-      <c r="U5" s="208"/>
-      <c r="V5" s="208"/>
-      <c r="W5" s="208"/>
-      <c r="X5" s="208"/>
-      <c r="Y5" s="208"/>
-      <c r="Z5" s="208"/>
-      <c r="AA5" s="208"/>
-      <c r="AB5" s="208"/>
-      <c r="AC5" s="208"/>
-      <c r="AD5" s="208"/>
-      <c r="AE5" s="208"/>
-      <c r="AF5" s="208"/>
-      <c r="AG5" s="208"/>
-      <c r="AH5" s="208"/>
-      <c r="AI5" s="208"/>
-      <c r="AJ5" s="208"/>
-      <c r="AK5" s="208"/>
-      <c r="AL5" s="208"/>
-      <c r="AM5" s="208"/>
-      <c r="AN5" s="208"/>
-      <c r="AO5" s="208"/>
-      <c r="AP5" s="208"/>
-      <c r="AQ5" s="208"/>
-      <c r="AR5" s="208"/>
-      <c r="AS5" s="208"/>
-      <c r="AT5" s="208"/>
-      <c r="AU5" s="208"/>
-      <c r="AV5" s="208"/>
-      <c r="AW5" s="208"/>
-      <c r="AX5" s="208"/>
-      <c r="AY5" s="208"/>
-      <c r="AZ5" s="208"/>
-      <c r="BA5" s="208"/>
-      <c r="BB5" s="208"/>
-      <c r="BC5" s="208"/>
-      <c r="BD5" s="209"/>
-      <c r="BE5" s="210" t="s">
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="210"/>
+      <c r="R5" s="210"/>
+      <c r="S5" s="210"/>
+      <c r="T5" s="210"/>
+      <c r="U5" s="210"/>
+      <c r="V5" s="210"/>
+      <c r="W5" s="210"/>
+      <c r="X5" s="210"/>
+      <c r="Y5" s="210"/>
+      <c r="Z5" s="210"/>
+      <c r="AA5" s="210"/>
+      <c r="AB5" s="210"/>
+      <c r="AC5" s="210"/>
+      <c r="AD5" s="210"/>
+      <c r="AE5" s="210"/>
+      <c r="AF5" s="210"/>
+      <c r="AG5" s="210"/>
+      <c r="AH5" s="210"/>
+      <c r="AI5" s="210"/>
+      <c r="AJ5" s="210"/>
+      <c r="AK5" s="210"/>
+      <c r="AL5" s="210"/>
+      <c r="AM5" s="210"/>
+      <c r="AN5" s="210"/>
+      <c r="AO5" s="210"/>
+      <c r="AP5" s="210"/>
+      <c r="AQ5" s="210"/>
+      <c r="AR5" s="210"/>
+      <c r="AS5" s="210"/>
+      <c r="AT5" s="210"/>
+      <c r="AU5" s="210"/>
+      <c r="AV5" s="210"/>
+      <c r="AW5" s="210"/>
+      <c r="AX5" s="210"/>
+      <c r="AY5" s="210"/>
+      <c r="AZ5" s="210"/>
+      <c r="BA5" s="210"/>
+      <c r="BB5" s="210"/>
+      <c r="BC5" s="210"/>
+      <c r="BD5" s="211"/>
+      <c r="BE5" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="BF5" s="211"/>
-      <c r="BG5" s="200" t="s">
+      <c r="BF5" s="213"/>
+      <c r="BG5" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="BH5" s="201"/>
-      <c r="BI5" s="202"/>
+      <c r="BH5" s="203"/>
+      <c r="BI5" s="204"/>
     </row>
     <row r="6" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="204"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="187" t="s">
+      <c r="A6" s="206"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="190" t="s">
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="190"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="190"/>
-      <c r="P6" s="190"/>
-      <c r="Q6" s="190"/>
-      <c r="R6" s="190"/>
-      <c r="S6" s="190"/>
-      <c r="T6" s="190"/>
-      <c r="U6" s="190"/>
-      <c r="V6" s="190"/>
-      <c r="W6" s="190"/>
-      <c r="X6" s="190"/>
-      <c r="Y6" s="190"/>
-      <c r="Z6" s="190"/>
-      <c r="AA6" s="190"/>
-      <c r="AB6" s="190"/>
-      <c r="AC6" s="190"/>
-      <c r="AD6" s="190"/>
-      <c r="AE6" s="190"/>
-      <c r="AF6" s="190"/>
-      <c r="AG6" s="190"/>
-      <c r="AH6" s="190"/>
-      <c r="AI6" s="190"/>
-      <c r="AJ6" s="190"/>
-      <c r="AK6" s="190"/>
-      <c r="AL6" s="190"/>
-      <c r="AM6" s="190"/>
-      <c r="AN6" s="190"/>
-      <c r="AO6" s="190" t="s">
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="192"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="192"/>
+      <c r="AG6" s="192"/>
+      <c r="AH6" s="192"/>
+      <c r="AI6" s="192"/>
+      <c r="AJ6" s="192"/>
+      <c r="AK6" s="192"/>
+      <c r="AL6" s="192"/>
+      <c r="AM6" s="192"/>
+      <c r="AN6" s="192"/>
+      <c r="AO6" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="AP6" s="190"/>
-      <c r="AQ6" s="190"/>
-      <c r="AR6" s="190"/>
-      <c r="AS6" s="190" t="s">
+      <c r="AP6" s="192"/>
+      <c r="AQ6" s="192"/>
+      <c r="AR6" s="192"/>
+      <c r="AS6" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="AT6" s="190"/>
-      <c r="AU6" s="190"/>
-      <c r="AV6" s="190" t="s">
+      <c r="AT6" s="192"/>
+      <c r="AU6" s="192"/>
+      <c r="AV6" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="AW6" s="190"/>
-      <c r="AX6" s="190"/>
-      <c r="AY6" s="190"/>
-      <c r="AZ6" s="190"/>
-      <c r="BA6" s="190"/>
-      <c r="BB6" s="190"/>
-      <c r="BC6" s="192" t="s">
+      <c r="AW6" s="192"/>
+      <c r="AX6" s="192"/>
+      <c r="AY6" s="192"/>
+      <c r="AZ6" s="192"/>
+      <c r="BA6" s="192"/>
+      <c r="BB6" s="192"/>
+      <c r="BC6" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="BD6" s="193"/>
-      <c r="BE6" s="194" t="s">
+      <c r="BD6" s="195"/>
+      <c r="BE6" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="BF6" s="195"/>
-      <c r="BG6" s="196" t="s">
+      <c r="BF6" s="197"/>
+      <c r="BG6" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="BH6" s="196" t="s">
+      <c r="BH6" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="BI6" s="213" t="s">
+      <c r="BI6" s="215" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A7" s="204"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
       <c r="E7" s="86"/>
       <c r="F7" s="90">
         <v>0.3</v>
@@ -6820,201 +6820,201 @@
       <c r="I7" s="90">
         <v>0.3</v>
       </c>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="189"/>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="189"/>
-      <c r="AJ7" s="189"/>
-      <c r="AK7" s="189"/>
-      <c r="AL7" s="191">
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="191"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="191"/>
+      <c r="Z7" s="191"/>
+      <c r="AA7" s="191"/>
+      <c r="AB7" s="191"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="191"/>
+      <c r="AF7" s="191"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="191"/>
+      <c r="AJ7" s="191"/>
+      <c r="AK7" s="191"/>
+      <c r="AL7" s="193">
         <f>COUNT(AJ9,AH9,AF9,AD9,Z9,V9,T9,P9,N9,L9,J9,X9)</f>
         <v>4</v>
       </c>
-      <c r="AM7" s="191"/>
+      <c r="AM7" s="193"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="189" t="s">
+      <c r="AO7" s="191" t="s">
         <v>323</v>
       </c>
-      <c r="AP7" s="189"/>
-      <c r="AQ7" s="189" t="s">
+      <c r="AP7" s="191"/>
+      <c r="AQ7" s="191" t="s">
         <v>324</v>
       </c>
-      <c r="AR7" s="189"/>
-      <c r="AS7" s="191">
+      <c r="AR7" s="191"/>
+      <c r="AS7" s="193">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>2</v>
       </c>
-      <c r="AT7" s="191"/>
+      <c r="AT7" s="193"/>
       <c r="AU7" s="85">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="189" t="s">
+      <c r="AV7" s="191" t="s">
         <v>322</v>
       </c>
-      <c r="AW7" s="189"/>
-      <c r="AX7" s="189"/>
-      <c r="AY7" s="189"/>
-      <c r="AZ7" s="191">
+      <c r="AW7" s="191"/>
+      <c r="AX7" s="191"/>
+      <c r="AY7" s="191"/>
+      <c r="AZ7" s="193">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="191"/>
+      <c r="BA7" s="193"/>
       <c r="BB7" s="16">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="192"/>
-      <c r="BD7" s="193"/>
-      <c r="BE7" s="189"/>
-      <c r="BF7" s="189"/>
-      <c r="BG7" s="196"/>
-      <c r="BH7" s="196"/>
-      <c r="BI7" s="214"/>
+      <c r="BC7" s="194"/>
+      <c r="BD7" s="195"/>
+      <c r="BE7" s="191"/>
+      <c r="BF7" s="191"/>
+      <c r="BG7" s="198"/>
+      <c r="BH7" s="198"/>
+      <c r="BI7" s="216"/>
     </row>
     <row r="8" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="212" t="s">
+      <c r="A8" s="206"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212" t="s">
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="185" t="s">
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185" t="s">
+      <c r="K8" s="187"/>
+      <c r="L8" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185" t="s">
+      <c r="M8" s="187"/>
+      <c r="N8" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185" t="s">
+      <c r="O8" s="187"/>
+      <c r="P8" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185" t="s">
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185" t="s">
+      <c r="S8" s="187"/>
+      <c r="T8" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185" t="s">
+      <c r="U8" s="187"/>
+      <c r="V8" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185" t="s">
+      <c r="W8" s="187"/>
+      <c r="X8" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="185"/>
-      <c r="Z8" s="185" t="s">
+      <c r="Y8" s="187"/>
+      <c r="Z8" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185" t="s">
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185" t="s">
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185" t="s">
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="185" t="s">
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="185" t="s">
+      <c r="AI8" s="187"/>
+      <c r="AJ8" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="AK8" s="185"/>
-      <c r="AL8" s="185" t="s">
+      <c r="AK8" s="187"/>
+      <c r="AL8" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="AM8" s="185"/>
+      <c r="AM8" s="187"/>
       <c r="AN8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AO8" s="185" t="s">
+      <c r="AO8" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="AP8" s="185"/>
-      <c r="AQ8" s="185" t="s">
+      <c r="AP8" s="187"/>
+      <c r="AQ8" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="185"/>
-      <c r="AS8" s="185" t="s">
+      <c r="AR8" s="187"/>
+      <c r="AS8" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="AT8" s="185"/>
+      <c r="AT8" s="187"/>
       <c r="AU8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AV8" s="185" t="s">
+      <c r="AV8" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="AW8" s="185"/>
-      <c r="AX8" s="185" t="s">
+      <c r="AW8" s="187"/>
+      <c r="AX8" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="AY8" s="185"/>
-      <c r="AZ8" s="185" t="s">
+      <c r="AY8" s="187"/>
+      <c r="AZ8" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="BA8" s="185"/>
+      <c r="BA8" s="187"/>
       <c r="BB8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="BC8" s="192"/>
-      <c r="BD8" s="193"/>
-      <c r="BE8" s="197" t="s">
+      <c r="BC8" s="194"/>
+      <c r="BD8" s="195"/>
+      <c r="BE8" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="BF8" s="198"/>
-      <c r="BG8" s="196"/>
-      <c r="BH8" s="196"/>
-      <c r="BI8" s="214"/>
+      <c r="BF8" s="200"/>
+      <c r="BG8" s="198"/>
+      <c r="BH8" s="198"/>
+      <c r="BI8" s="216"/>
     </row>
     <row r="9" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A9" s="205"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
+      <c r="A9" s="207"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="20">
         <v>50</v>
       </c>
@@ -7104,9 +7104,9 @@
       <c r="BF9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BG9" s="196"/>
-      <c r="BH9" s="196"/>
-      <c r="BI9" s="215"/>
+      <c r="BG9" s="198"/>
+      <c r="BH9" s="198"/>
+      <c r="BI9" s="217"/>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="34">
@@ -7122,15 +7122,15 @@
         <v>ABUNDO ROHAMA P.</v>
       </c>
       <c r="D10" s="83">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" s="73">
         <f>(D10/$D$9)*100</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F10" s="76">
         <f t="shared" ref="F10:F41" si="0">IFERROR((E10*$F$7), " ")</f>
-        <v>23.4</v>
+        <v>25.2</v>
       </c>
       <c r="G10" s="133">
         <v>62.9</v>
@@ -7270,11 +7270,11 @@
       </c>
       <c r="BC10" s="78">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>88.257142857142867</v>
+        <v>90.057142857142864</v>
       </c>
       <c r="BD10" s="78">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>88.26</v>
+        <v>90.06</v>
       </c>
       <c r="BE10" s="83"/>
       <c r="BF10" s="73" t="str">
@@ -7283,11 +7283,11 @@
       </c>
       <c r="BG10" s="82">
         <f>BC10</f>
-        <v>88.257142857142867</v>
+        <v>90.057142857142864</v>
       </c>
       <c r="BH10" s="82">
         <f>IFERROR(VLOOKUP(BG10,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="BI10" s="74" t="str">
         <f>IF(BH10&lt;=3,"PASSED","FAILED")</f>
@@ -7319,15 +7319,15 @@
         <v>16.8</v>
       </c>
       <c r="G11" s="134">
-        <v>30.9</v>
+        <v>44</v>
       </c>
       <c r="H11" s="73">
         <f t="shared" ref="H11:H70" si="2">(G11/$G$9)*100</f>
-        <v>44.142857142857139</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="I11" s="76">
         <f t="shared" si="1"/>
-        <v>13.242857142857142</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="J11" s="83">
         <v>10</v>
@@ -7435,11 +7435,11 @@
       </c>
       <c r="BC11" s="78">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>66.876190476190473</v>
+        <v>72.490476190476187</v>
       </c>
       <c r="BD11" s="78">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>66.88</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="BE11" s="84"/>
       <c r="BF11" s="73" t="str">
@@ -7448,15 +7448,15 @@
       </c>
       <c r="BG11" s="82">
         <f t="shared" ref="BG11:BG70" si="21">BC11</f>
-        <v>66.876190476190473</v>
+        <v>72.490476190476187</v>
       </c>
       <c r="BH11" s="82">
         <f>IFERROR(VLOOKUP(BG11,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI11" s="74" t="str">
         <f t="shared" ref="BI11:BI70" si="22">IF(BH11&lt;=3,"PASSED","FAILED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -7743,11 +7743,11 @@
         <v>9.75</v>
       </c>
       <c r="AV13" s="84">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AW13" s="73">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AX13" s="84"/>
       <c r="AY13" s="73" t="str">
@@ -7761,15 +7761,15 @@
       </c>
       <c r="BB13" s="76">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="BC13" s="78">
         <f t="shared" si="18"/>
-        <v>72.292857142857144</v>
+        <v>76.192857142857136</v>
       </c>
       <c r="BD13" s="78">
         <f t="shared" si="19"/>
-        <v>72.290000000000006</v>
+        <v>76.19</v>
       </c>
       <c r="BE13" s="84"/>
       <c r="BF13" s="73" t="str">
@@ -7778,11 +7778,11 @@
       </c>
       <c r="BG13" s="82">
         <f t="shared" si="21"/>
-        <v>72.292857142857144</v>
+        <v>76.192857142857136</v>
       </c>
       <c r="BH13" s="82">
         <f>IFERROR(VLOOKUP(BG13,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BI13" s="74" t="str">
         <f t="shared" si="22"/>
@@ -8238,11 +8238,11 @@
         <v>9.5</v>
       </c>
       <c r="AV16" s="84">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AW16" s="73">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AX16" s="84"/>
       <c r="AY16" s="73" t="str">
@@ -8256,15 +8256,15 @@
       </c>
       <c r="BB16" s="76">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="BC16" s="78">
         <f t="shared" si="18"/>
-        <v>70.395238095238099</v>
+        <v>74.295238095238091</v>
       </c>
       <c r="BD16" s="78">
         <f t="shared" si="19"/>
-        <v>70.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="BE16" s="84"/>
       <c r="BF16" s="73" t="str">
@@ -8273,11 +8273,11 @@
       </c>
       <c r="BG16" s="82">
         <f t="shared" si="21"/>
-        <v>70.395238095238099</v>
+        <v>74.295238095238091</v>
       </c>
       <c r="BH16" s="82">
         <f>IFERROR(VLOOKUP(BG16,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BI16" s="74" t="str">
         <f t="shared" si="22"/>
@@ -8498,19 +8498,15 @@
         <f t="shared" si="4"/>
         <v>86.666666666666671</v>
       </c>
-      <c r="N18" s="84">
-        <v>20</v>
-      </c>
+      <c r="N18" s="84"/>
       <c r="O18" s="73">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="P18" s="84">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P18" s="84"/>
       <c r="Q18" s="73">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R18" s="84"/>
       <c r="S18" s="73" t="str">
@@ -8542,7 +8538,7 @@
       <c r="AM18" s="75"/>
       <c r="AN18" s="76">
         <f t="shared" si="9"/>
-        <v>15.433333333333335</v>
+        <v>7.8333333333333348</v>
       </c>
       <c r="AO18" s="84">
         <v>39</v>
@@ -8567,12 +8563,10 @@
         <f t="shared" si="13"/>
         <v>5.45</v>
       </c>
-      <c r="AV18" s="84">
-        <v>50</v>
-      </c>
+      <c r="AV18" s="84"/>
       <c r="AW18" s="73">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="84"/>
       <c r="AY18" s="73" t="str">
@@ -8586,15 +8580,15 @@
       </c>
       <c r="BB18" s="76">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="78">
         <f t="shared" si="18"/>
-        <v>43.283333333333331</v>
+        <v>30.683333333333334</v>
       </c>
       <c r="BD18" s="78">
         <f t="shared" si="19"/>
-        <v>43.28</v>
+        <v>30.68</v>
       </c>
       <c r="BE18" s="84"/>
       <c r="BF18" s="73" t="str">
@@ -8603,7 +8597,7 @@
       </c>
       <c r="BG18" s="82">
         <f t="shared" si="21"/>
-        <v>43.283333333333331</v>
+        <v>30.683333333333334</v>
       </c>
       <c r="BH18" s="82">
         <f>IFERROR(VLOOKUP(BG18,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -8639,15 +8633,15 @@
         <v>20.399999999999999</v>
       </c>
       <c r="G19" s="134">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H19" s="73">
         <f t="shared" si="2"/>
-        <v>54.285714285714285</v>
+        <v>60</v>
       </c>
       <c r="I19" s="76">
         <f t="shared" si="1"/>
-        <v>16.285714285714285</v>
+        <v>18</v>
       </c>
       <c r="J19" s="83">
         <v>7</v>
@@ -8755,11 +8749,11 @@
       </c>
       <c r="BC19" s="78">
         <f t="shared" si="18"/>
-        <v>68.902380952380952</v>
+        <v>70.616666666666674</v>
       </c>
       <c r="BD19" s="78">
         <f t="shared" si="19"/>
-        <v>68.900000000000006</v>
+        <v>70.62</v>
       </c>
       <c r="BE19" s="84"/>
       <c r="BF19" s="73" t="str">
@@ -8768,15 +8762,15 @@
       </c>
       <c r="BG19" s="82">
         <f t="shared" si="21"/>
-        <v>68.902380952380952</v>
+        <v>70.616666666666674</v>
       </c>
       <c r="BH19" s="82">
         <f>IFERROR(VLOOKUP(BG19,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI19" s="74" t="str">
         <f t="shared" si="22"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="20" spans="1:61">
@@ -9629,15 +9623,15 @@
         <v>18.599999999999998</v>
       </c>
       <c r="G25" s="134">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H25" s="73">
         <f t="shared" si="2"/>
-        <v>45.714285714285715</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="I25" s="76">
         <f t="shared" si="1"/>
-        <v>13.714285714285714</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="J25" s="83">
         <v>8</v>
@@ -9745,11 +9739,11 @@
       </c>
       <c r="BC25" s="78">
         <f t="shared" si="18"/>
-        <v>63.647619047619045</v>
+        <v>70.504761904761907</v>
       </c>
       <c r="BD25" s="78">
         <f t="shared" si="19"/>
-        <v>63.65</v>
+        <v>70.5</v>
       </c>
       <c r="BE25" s="84"/>
       <c r="BF25" s="73" t="str">
@@ -9758,15 +9752,15 @@
       </c>
       <c r="BG25" s="82">
         <f t="shared" si="21"/>
-        <v>63.647619047619045</v>
+        <v>70.504761904761907</v>
       </c>
       <c r="BH25" s="82">
         <f>IFERROR(VLOOKUP(BG25,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI25" s="74" t="str">
         <f t="shared" si="22"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:61">
@@ -11040,12 +11034,10 @@
         <f t="shared" si="13"/>
         <v>6.65</v>
       </c>
-      <c r="AV33" s="84">
-        <v>50</v>
-      </c>
+      <c r="AV33" s="84"/>
       <c r="AW33" s="73">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="84"/>
       <c r="AY33" s="73" t="str">
@@ -11059,15 +11051,15 @@
       </c>
       <c r="BB33" s="76">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="78">
         <f t="shared" si="18"/>
-        <v>39.183333333333337</v>
+        <v>34.183333333333337</v>
       </c>
       <c r="BD33" s="78">
         <f t="shared" si="19"/>
-        <v>39.18</v>
+        <v>34.18</v>
       </c>
       <c r="BE33" s="84"/>
       <c r="BF33" s="73" t="str">
@@ -11076,7 +11068,7 @@
       </c>
       <c r="BG33" s="82">
         <f t="shared" si="21"/>
-        <v>39.183333333333337</v>
+        <v>34.183333333333337</v>
       </c>
       <c r="BH33" s="82">
         <f>IFERROR(VLOOKUP(BG33,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -12526,11 +12518,11 @@
         <v>9.75</v>
       </c>
       <c r="AV42" s="84">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW42" s="73">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AX42" s="84"/>
       <c r="AY42" s="73" t="str">
@@ -12544,15 +12536,15 @@
       </c>
       <c r="BB42" s="76">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC42" s="78">
         <f t="shared" si="18"/>
-        <v>74.25</v>
+        <v>76.25</v>
       </c>
       <c r="BD42" s="78">
         <f t="shared" si="19"/>
-        <v>74.25</v>
+        <v>76.25</v>
       </c>
       <c r="BE42" s="84"/>
       <c r="BF42" s="73" t="str">
@@ -12561,7 +12553,7 @@
       </c>
       <c r="BG42" s="82">
         <f t="shared" si="21"/>
-        <v>74.25</v>
+        <v>76.25</v>
       </c>
       <c r="BH42" s="82">
         <f>IFERROR(VLOOKUP(BG42,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -13351,11 +13343,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AV47" s="84">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AW47" s="73">
         <f t="shared" si="14"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AX47" s="84"/>
       <c r="AY47" s="73" t="str">
@@ -13369,15 +13361,15 @@
       </c>
       <c r="BB47" s="76">
         <f t="shared" si="17"/>
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="BC47" s="78">
         <f t="shared" si="18"/>
-        <v>76.647619047619045</v>
+        <v>77.247619047619054</v>
       </c>
       <c r="BD47" s="78">
         <f t="shared" si="19"/>
-        <v>76.650000000000006</v>
+        <v>77.25</v>
       </c>
       <c r="BE47" s="84"/>
       <c r="BF47" s="73" t="str">
@@ -13386,18 +13378,18 @@
       </c>
       <c r="BG47" s="82">
         <f t="shared" si="21"/>
-        <v>76.647619047619045</v>
+        <v>77.247619047619054</v>
       </c>
       <c r="BH47" s="82">
         <f>IFERROR(VLOOKUP(BG47,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="BI47" s="74" t="str">
         <f t="shared" si="22"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="48" spans="1:61">
+    <row r="48" spans="1:61" hidden="1">
       <c r="A48" s="33">
         <f>REGISTRATION!A49</f>
         <v>39</v>
@@ -13677,11 +13669,11 @@
         <v>9.25</v>
       </c>
       <c r="AV49" s="84">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW49" s="73">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AX49" s="84"/>
       <c r="AY49" s="73" t="str">
@@ -13695,15 +13687,15 @@
       </c>
       <c r="BB49" s="76">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC49" s="78">
         <f t="shared" si="18"/>
-        <v>73.673809523809524</v>
+        <v>75.673809523809524</v>
       </c>
       <c r="BD49" s="78">
         <f t="shared" si="19"/>
-        <v>73.67</v>
+        <v>75.67</v>
       </c>
       <c r="BE49" s="84"/>
       <c r="BF49" s="73" t="str">
@@ -13712,7 +13704,7 @@
       </c>
       <c r="BG49" s="82">
         <f t="shared" si="21"/>
-        <v>73.673809523809524</v>
+        <v>75.673809523809524</v>
       </c>
       <c r="BH49" s="82">
         <f>IFERROR(VLOOKUP(BG49,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -13842,11 +13834,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AV50" s="84">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AW50" s="73">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AX50" s="84"/>
       <c r="AY50" s="73" t="str">
@@ -13860,15 +13852,15 @@
       </c>
       <c r="BB50" s="76">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="BC50" s="78">
         <f t="shared" si="18"/>
-        <v>80.409523809523805</v>
+        <v>84.30952380952381</v>
       </c>
       <c r="BD50" s="78">
         <f t="shared" si="19"/>
-        <v>80.41</v>
+        <v>84.31</v>
       </c>
       <c r="BE50" s="84"/>
       <c r="BF50" s="73" t="str">
@@ -13877,11 +13869,11 @@
       </c>
       <c r="BG50" s="82">
         <f t="shared" si="21"/>
-        <v>80.409523809523805</v>
+        <v>84.30952380952381</v>
       </c>
       <c r="BH50" s="82">
         <f>IFERROR(VLOOKUP(BG50,REGISTRATION!$Q$22:$R$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BI50" s="74" t="str">
         <f t="shared" si="22"/>
@@ -16972,8 +16964,8 @@
   </sheetPr>
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16984,35 +16976,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="216" t="str">
+      <c r="A2" s="218" t="str">
         <f>UPPER(CONCATENATE("GRADING SHEET A.Y."," ",REGISTRATION!Q12))</f>
         <v>GRADING SHEET A.Y. 2017-2018</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="216"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="str">
@@ -17075,32 +17067,32 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="227" t="s">
+      <c r="A10" s="229" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="230" t="s">
+      <c r="C10" s="232" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="217" t="s">
+      <c r="D10" s="232"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="232"/>
+      <c r="H10" s="232"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="218"/>
-      <c r="L10" s="221" t="s">
+      <c r="K10" s="220"/>
+      <c r="L10" s="223" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="228"/>
-      <c r="B11" s="224" t="s">
+      <c r="A11" s="230"/>
+      <c r="B11" s="226" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -17118,17 +17110,17 @@
       <c r="G11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="226" t="s">
+      <c r="H11" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="226"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="222"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="221"/>
+      <c r="K11" s="222"/>
+      <c r="L11" s="224"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A12" s="229"/>
-      <c r="B12" s="225"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="38">
         <f>'RAW GRADES'!F7</f>
         <v>0.3</v>
@@ -17161,7 +17153,7 @@
       <c r="K12" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="223"/>
+      <c r="L12" s="225"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="41">
@@ -17173,7 +17165,7 @@
       </c>
       <c r="C13" s="43">
         <f>'RAW GRADES'!F10</f>
-        <v>23.4</v>
+        <v>25.2</v>
       </c>
       <c r="D13" s="70">
         <f>'RAW GRADES'!I10</f>
@@ -17193,19 +17185,19 @@
       </c>
       <c r="H13" s="45">
         <f>'RAW GRADES'!BC10</f>
-        <v>88.257142857142867</v>
+        <v>90.057142857142864</v>
       </c>
       <c r="I13" s="45">
         <f>'RAW GRADES'!BD10</f>
-        <v>88.26</v>
+        <v>90.06</v>
       </c>
       <c r="J13" s="46">
         <f>'RAW GRADES'!BG10</f>
-        <v>88.257142857142867</v>
+        <v>90.057142857142864</v>
       </c>
       <c r="K13" s="47">
         <f>'RAW GRADES'!BH10</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="50" t="str">
         <f>IF(K13&gt;3,"FAILED","PASSED")</f>
@@ -17226,7 +17218,7 @@
       </c>
       <c r="D14" s="70">
         <f>'RAW GRADES'!I11</f>
-        <v>13.242857142857142</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="E14" s="44">
         <f>'RAW GRADES'!AN11</f>
@@ -17242,23 +17234,23 @@
       </c>
       <c r="H14" s="45">
         <f>'RAW GRADES'!BC11</f>
-        <v>66.876190476190473</v>
+        <v>72.490476190476187</v>
       </c>
       <c r="I14" s="45">
         <f>'RAW GRADES'!BD11</f>
-        <v>66.88</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="J14" s="49">
         <f>'RAW GRADES'!BG11</f>
-        <v>66.876190476190473</v>
+        <v>72.490476190476187</v>
       </c>
       <c r="K14" s="47">
         <f>'RAW GRADES'!BH11</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="50" t="str">
         <f>IF(K14&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -17336,23 +17328,23 @@
       </c>
       <c r="G16" s="44">
         <f>'RAW GRADES'!BB13</f>
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="H16" s="45">
         <f>'RAW GRADES'!BC13</f>
-        <v>72.292857142857144</v>
+        <v>76.192857142857136</v>
       </c>
       <c r="I16" s="45">
         <f>'RAW GRADES'!BD13</f>
-        <v>72.290000000000006</v>
+        <v>76.19</v>
       </c>
       <c r="J16" s="49">
         <f>'RAW GRADES'!BG13</f>
-        <v>72.292857142857144</v>
+        <v>76.192857142857136</v>
       </c>
       <c r="K16" s="47">
         <f>'RAW GRADES'!BH13</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L16" s="50" t="str">
         <f t="shared" si="0"/>
@@ -17483,23 +17475,23 @@
       </c>
       <c r="G19" s="44">
         <f>'RAW GRADES'!BB16</f>
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="H19" s="45">
         <f>'RAW GRADES'!BC16</f>
-        <v>70.395238095238099</v>
+        <v>74.295238095238091</v>
       </c>
       <c r="I19" s="45">
         <f>'RAW GRADES'!BD16</f>
-        <v>70.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="J19" s="49">
         <f>'RAW GRADES'!BG16</f>
-        <v>70.395238095238099</v>
+        <v>74.295238095238091</v>
       </c>
       <c r="K19" s="47">
         <f>'RAW GRADES'!BH16</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L19" s="50" t="str">
         <f t="shared" si="0"/>
@@ -17573,7 +17565,7 @@
       </c>
       <c r="E21" s="44">
         <f>'RAW GRADES'!AN18</f>
-        <v>15.433333333333335</v>
+        <v>7.8333333333333348</v>
       </c>
       <c r="F21" s="44">
         <f>'RAW GRADES'!AU18</f>
@@ -17581,19 +17573,19 @@
       </c>
       <c r="G21" s="44">
         <f>'RAW GRADES'!BB18</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="45">
         <f>'RAW GRADES'!BC18</f>
-        <v>43.283333333333331</v>
+        <v>30.683333333333334</v>
       </c>
       <c r="I21" s="45">
         <f>'RAW GRADES'!BD18</f>
-        <v>43.28</v>
+        <v>30.68</v>
       </c>
       <c r="J21" s="49">
         <f>'RAW GRADES'!BG18</f>
-        <v>43.283333333333331</v>
+        <v>30.683333333333334</v>
       </c>
       <c r="K21" s="47">
         <f>'RAW GRADES'!BH18</f>
@@ -17618,7 +17610,7 @@
       </c>
       <c r="D22" s="70">
         <f>'RAW GRADES'!I19</f>
-        <v>16.285714285714285</v>
+        <v>18</v>
       </c>
       <c r="E22" s="44">
         <f>'RAW GRADES'!AN19</f>
@@ -17634,23 +17626,23 @@
       </c>
       <c r="H22" s="45">
         <f>'RAW GRADES'!BC19</f>
-        <v>68.902380952380952</v>
+        <v>70.616666666666674</v>
       </c>
       <c r="I22" s="45">
         <f>'RAW GRADES'!BD19</f>
-        <v>68.900000000000006</v>
+        <v>70.62</v>
       </c>
       <c r="J22" s="49">
         <f>'RAW GRADES'!BG19</f>
-        <v>68.902380952380952</v>
+        <v>70.616666666666674</v>
       </c>
       <c r="K22" s="47">
         <f>'RAW GRADES'!BH19</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -17912,7 +17904,7 @@
       </c>
       <c r="D28" s="70">
         <f>'RAW GRADES'!I25</f>
-        <v>13.714285714285714</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="E28" s="44">
         <f>'RAW GRADES'!AN25</f>
@@ -17928,23 +17920,23 @@
       </c>
       <c r="H28" s="45">
         <f>'RAW GRADES'!BC25</f>
-        <v>63.647619047619045</v>
+        <v>70.504761904761907</v>
       </c>
       <c r="I28" s="45">
         <f>'RAW GRADES'!BD25</f>
-        <v>63.65</v>
+        <v>70.5</v>
       </c>
       <c r="J28" s="49">
         <f>'RAW GRADES'!BG25</f>
-        <v>63.647619047619045</v>
+        <v>70.504761904761907</v>
       </c>
       <c r="K28" s="47">
         <f>'RAW GRADES'!BH25</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L28" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -18316,19 +18308,19 @@
       </c>
       <c r="G36" s="44">
         <f>'RAW GRADES'!BB33</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H36" s="45">
         <f>'RAW GRADES'!BC33</f>
-        <v>39.183333333333337</v>
+        <v>34.183333333333337</v>
       </c>
       <c r="I36" s="45">
         <f>'RAW GRADES'!BD33</f>
-        <v>39.18</v>
+        <v>34.18</v>
       </c>
       <c r="J36" s="49">
         <f>'RAW GRADES'!BG33</f>
-        <v>39.183333333333337</v>
+        <v>34.183333333333337</v>
       </c>
       <c r="K36" s="47">
         <f>'RAW GRADES'!BH33</f>
@@ -18757,19 +18749,19 @@
       </c>
       <c r="G45" s="44">
         <f>'RAW GRADES'!BB42</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H45" s="45">
         <f>'RAW GRADES'!BC42</f>
-        <v>74.25</v>
+        <v>76.25</v>
       </c>
       <c r="I45" s="45">
         <f>'RAW GRADES'!BD42</f>
-        <v>74.25</v>
+        <v>76.25</v>
       </c>
       <c r="J45" s="49">
         <f>'RAW GRADES'!BG42</f>
-        <v>74.25</v>
+        <v>76.25</v>
       </c>
       <c r="K45" s="47">
         <f>'RAW GRADES'!BH42</f>
@@ -19002,23 +18994,23 @@
       </c>
       <c r="G50" s="44">
         <f>'RAW GRADES'!BB47</f>
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="H50" s="45">
         <f>'RAW GRADES'!BC47</f>
-        <v>76.647619047619045</v>
+        <v>77.247619047619054</v>
       </c>
       <c r="I50" s="45">
         <f>'RAW GRADES'!BD47</f>
-        <v>76.650000000000006</v>
+        <v>77.25</v>
       </c>
       <c r="J50" s="49">
         <f>'RAW GRADES'!BG47</f>
-        <v>76.647619047619045</v>
+        <v>77.247619047619054</v>
       </c>
       <c r="K50" s="47">
         <f>'RAW GRADES'!BH47</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L50" s="50" t="str">
         <f t="shared" si="0"/>
@@ -19100,19 +19092,19 @@
       </c>
       <c r="G52" s="44">
         <f>'RAW GRADES'!BB49</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H52" s="45">
         <f>'RAW GRADES'!BC49</f>
-        <v>73.673809523809524</v>
+        <v>75.673809523809524</v>
       </c>
       <c r="I52" s="45">
         <f>'RAW GRADES'!BD49</f>
-        <v>73.67</v>
+        <v>75.67</v>
       </c>
       <c r="J52" s="49">
         <f>'RAW GRADES'!BG49</f>
-        <v>73.673809523809524</v>
+        <v>75.673809523809524</v>
       </c>
       <c r="K52" s="47">
         <f>'RAW GRADES'!BH49</f>
@@ -19149,23 +19141,23 @@
       </c>
       <c r="G53" s="44">
         <f>'RAW GRADES'!BB50</f>
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="H53" s="45">
         <f>'RAW GRADES'!BC50</f>
-        <v>80.409523809523805</v>
+        <v>84.30952380952381</v>
       </c>
       <c r="I53" s="45">
         <f>'RAW GRADES'!BD50</f>
-        <v>80.41</v>
+        <v>84.31</v>
       </c>
       <c r="J53" s="49">
         <f>'RAW GRADES'!BG50</f>
-        <v>80.409523809523805</v>
+        <v>84.30952380952381</v>
       </c>
       <c r="K53" s="47">
         <f>'RAW GRADES'!BH50</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L53" s="50" t="str">
         <f t="shared" si="0"/>
@@ -20207,7 +20199,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" scale="85" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="256" scale="86" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20218,14 +20210,14 @@
   </sheetPr>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="6" width="18.28515625" customWidth="1"/>
   </cols>
@@ -20247,106 +20239,106 @@
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="235"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="251" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="251" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
+      <c r="B6" s="251"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="252"/>
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
+      <c r="A8" s="254"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="235"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+      <c r="A9" s="237"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="253"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
+      <c r="A10" s="255"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="254" t="s">
+      <c r="A11" s="256" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="254"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="252"/>
-      <c r="B12" s="252"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
+      <c r="A12" s="254"/>
+      <c r="B12" s="254"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="51"/>
       <c r="B13" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="255" t="str">
+      <c r="C13" s="257" t="str">
         <f>UPPER(REGISTRATION!C7)</f>
         <v>DCIT 23</v>
       </c>
-      <c r="D13" s="255"/>
-      <c r="E13" s="255"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
       <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6">
@@ -20354,12 +20346,12 @@
       <c r="B14" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="248" t="str">
+      <c r="C14" s="250" t="str">
         <f>UPPER(REGISTRATION!C6)</f>
         <v>DISCRETE STRUCTURE</v>
       </c>
-      <c r="D14" s="248"/>
-      <c r="E14" s="248"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="250"/>
       <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -20367,12 +20359,12 @@
       <c r="B15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="239" t="str">
+      <c r="C15" s="241" t="str">
         <f>UPPER(REGISTRATION!D8)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6">
@@ -20380,12 +20372,12 @@
       <c r="B16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="240" t="str">
+      <c r="C16" s="242" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!E8))</f>
         <v>BSIT A</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="242"/>
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6">
@@ -20393,12 +20385,12 @@
       <c r="B17" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="240" t="str">
+      <c r="C17" s="242" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECOND SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -20410,42 +20402,42 @@
       <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="245" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="231" t="s">
+      <c r="C19" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="231" t="s">
+      <c r="D19" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="245" t="s">
+      <c r="E19" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="231" t="s">
+      <c r="F19" s="233" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="241"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="232"/>
+      <c r="A20" s="243"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="234"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="242"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="233"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="235"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="56">
@@ -20461,7 +20453,7 @@
       </c>
       <c r="D22" s="59">
         <f>'DEPT CHAIR'!K13</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="E22" s="60" t="str">
         <f>IF(D22&lt;=3,"3","0")</f>
@@ -20486,15 +20478,15 @@
       </c>
       <c r="D23" s="59">
         <f>'DEPT CHAIR'!K14</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="60" t="str">
         <f t="shared" ref="E23:E44" si="0">IF(D23&lt;=3,"3","0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="61" t="str">
         <f>'DEPT CHAIR'!L14</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
@@ -20523,7 +20515,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="62">
+      <c r="A25" s="56">
         <v>4</v>
       </c>
       <c r="B25" s="57" t="str">
@@ -20536,7 +20528,7 @@
       </c>
       <c r="D25" s="59">
         <f>'DEPT CHAIR'!K16</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E25" s="60" t="str">
         <f t="shared" si="0"/>
@@ -20548,7 +20540,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="56">
+      <c r="A26" s="62">
         <v>5</v>
       </c>
       <c r="B26" s="57" t="str">
@@ -20573,7 +20565,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="62">
+      <c r="A27" s="56">
         <v>6</v>
       </c>
       <c r="B27" s="57" t="str">
@@ -20611,7 +20603,7 @@
       </c>
       <c r="D28" s="59">
         <f>'DEPT CHAIR'!K19</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E28" s="60" t="str">
         <f t="shared" si="0"/>
@@ -20673,7 +20665,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="62">
+      <c r="A31" s="56">
         <v>10</v>
       </c>
       <c r="B31" s="57" t="str">
@@ -20686,19 +20678,19 @@
       </c>
       <c r="D31" s="59">
         <f>'DEPT CHAIR'!K22</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="61" t="str">
         <f>'DEPT CHAIR'!L22</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18">
-      <c r="A32" s="56">
+      <c r="A32" s="62">
         <v>11</v>
       </c>
       <c r="B32" s="57" t="str">
@@ -20723,7 +20715,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18">
-      <c r="A33" s="62">
+      <c r="A33" s="56">
         <v>12</v>
       </c>
       <c r="B33" s="57" t="str">
@@ -20823,7 +20815,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18">
-      <c r="A37" s="62">
+      <c r="A37" s="56">
         <v>16</v>
       </c>
       <c r="B37" s="57" t="str">
@@ -20836,19 +20828,19 @@
       </c>
       <c r="D37" s="59">
         <f>'DEPT CHAIR'!K28</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="61" t="str">
         <f>'DEPT CHAIR'!L28</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18">
-      <c r="A38" s="56">
+      <c r="A38" s="62">
         <v>17</v>
       </c>
       <c r="B38" s="57" t="str">
@@ -20873,7 +20865,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18">
-      <c r="A39" s="62">
+      <c r="A39" s="56">
         <v>18</v>
       </c>
       <c r="B39" s="57" t="str">
@@ -20973,7 +20965,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18">
-      <c r="A43" s="62">
+      <c r="A43" s="56">
         <v>22</v>
       </c>
       <c r="B43" s="57" t="str">
@@ -20998,7 +20990,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18">
-      <c r="A44" s="56">
+      <c r="A44" s="62">
         <v>23</v>
       </c>
       <c r="B44" s="57" t="str">
@@ -21023,7 +21015,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18">
-      <c r="A45" s="62">
+      <c r="A45" s="56">
         <v>24</v>
       </c>
       <c r="B45" s="57" t="str">
@@ -21123,7 +21115,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="18">
-      <c r="A49" s="62">
+      <c r="A49" s="56">
         <v>28</v>
       </c>
       <c r="B49" s="57" t="str">
@@ -21148,7 +21140,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18">
-      <c r="A50" s="56">
+      <c r="A50" s="62">
         <v>29</v>
       </c>
       <c r="B50" s="57" t="str">
@@ -21173,7 +21165,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18">
-      <c r="A51" s="62">
+      <c r="A51" s="56">
         <v>30</v>
       </c>
       <c r="B51" s="57" t="str">
@@ -21273,7 +21265,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="18">
-      <c r="A55" s="62">
+      <c r="A55" s="56">
         <v>34</v>
       </c>
       <c r="B55" s="57" t="str">
@@ -21298,7 +21290,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18">
-      <c r="A56" s="56">
+      <c r="A56" s="62">
         <v>35</v>
       </c>
       <c r="B56" s="57" t="str">
@@ -21323,7 +21315,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18">
-      <c r="A57" s="62">
+      <c r="A57" s="56">
         <v>36</v>
       </c>
       <c r="B57" s="57" t="str">
@@ -21386,7 +21378,7 @@
       </c>
       <c r="D59" s="59">
         <f>'DEPT CHAIR'!K50</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E59" s="60" t="str">
         <f t="shared" si="2"/>
@@ -21399,7 +21391,7 @@
     </row>
     <row r="60" spans="1:6" ht="18">
       <c r="A60" s="56">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="57" t="str">
         <f>'DEPT CHAIR'!B52</f>
@@ -21423,8 +21415,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18">
-      <c r="A61" s="62">
-        <v>41</v>
+      <c r="A61" s="56">
+        <v>40</v>
       </c>
       <c r="B61" s="57" t="str">
         <f>'DEPT CHAIR'!B53</f>
@@ -21436,7 +21428,7 @@
       </c>
       <c r="D61" s="59">
         <f>'DEPT CHAIR'!K53</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E61" s="60" t="str">
         <f t="shared" si="2"/>
@@ -21448,8 +21440,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18">
-      <c r="A62" s="56">
-        <v>42</v>
+      <c r="A62" s="62">
+        <v>41</v>
       </c>
       <c r="B62" s="57" t="str">
         <f>'DEPT CHAIR'!B54</f>
@@ -21473,8 +21465,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="18">
-      <c r="A63" s="62">
-        <v>43</v>
+      <c r="A63" s="56">
+        <v>42</v>
       </c>
       <c r="B63" s="57" t="str">
         <f>'DEPT CHAIR'!B55</f>
@@ -21499,7 +21491,7 @@
     </row>
     <row r="64" spans="1:6" ht="18.75" thickBot="1">
       <c r="A64" s="56">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="57" t="str">
         <f>'DEPT CHAIR'!B56</f>
@@ -21523,14 +21515,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A65" s="236" t="s">
+      <c r="A65" s="238" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="237"/>
-      <c r="C65" s="237"/>
-      <c r="D65" s="237"/>
-      <c r="E65" s="237"/>
-      <c r="F65" s="238"/>
+      <c r="B65" s="239"/>
+      <c r="C65" s="239"/>
+      <c r="D65" s="239"/>
+      <c r="E65" s="239"/>
+      <c r="F65" s="240"/>
     </row>
     <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="53"/>
@@ -21563,11 +21555,11 @@
       </c>
       <c r="C69" s="51"/>
       <c r="D69" s="51"/>
-      <c r="E69" s="234">
+      <c r="E69" s="236">
         <f ca="1">NOW()</f>
-        <v>43248.784169328705</v>
-      </c>
-      <c r="F69" s="234"/>
+        <v>43250.934511111111</v>
+      </c>
+      <c r="F69" s="236"/>
     </row>
     <row r="70" spans="1:6" ht="15.75">
       <c r="A70" s="51"/>
@@ -21577,10 +21569,10 @@
       </c>
       <c r="C70" s="64"/>
       <c r="D70" s="64"/>
-      <c r="E70" s="235" t="s">
+      <c r="E70" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="235"/>
+      <c r="F70" s="237"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="51"/>
@@ -21597,8 +21589,8 @@
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
       <c r="D72" s="65"/>
-      <c r="E72" s="235"/>
-      <c r="F72" s="235"/>
+      <c r="E72" s="237"/>
+      <c r="F72" s="237"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="51"/>
@@ -21752,8 +21744,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" scale="57" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="256" scale="69" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="72" max="16383" man="1"/>
     <brk id="81" max="16383" man="1"/>
@@ -21767,8 +21759,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A4:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21780,14 +21772,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="274" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1">
       <c r="B5" s="51"/>
@@ -21798,130 +21790,130 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1">
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="275" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="257"/>
-      <c r="D6" s="256" t="s">
+      <c r="C6" s="259"/>
+      <c r="D6" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="256" t="s">
+      <c r="E6" s="259"/>
+      <c r="F6" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="257"/>
+      <c r="G6" s="259"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="274" t="s">
+      <c r="B7" s="276" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="275"/>
-      <c r="D7" s="276">
+      <c r="C7" s="277"/>
+      <c r="D7" s="278">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=1.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=1.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=1.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=1.75"))</f>
         <v>3</v>
       </c>
-      <c r="E7" s="277"/>
-      <c r="F7" s="278">
+      <c r="E7" s="279"/>
+      <c r="F7" s="280">
         <f t="shared" ref="F7:F12" si="0">(D7/$D$13)*100</f>
         <v>6.9767441860465116</v>
       </c>
-      <c r="G7" s="279"/>
+      <c r="G7" s="281"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="270" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="262">
+      <c r="C8" s="271"/>
+      <c r="D8" s="264">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=2.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=2.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=2.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=2.75"))</f>
-        <v>21</v>
-      </c>
-      <c r="E8" s="263"/>
-      <c r="F8" s="264">
+        <v>23</v>
+      </c>
+      <c r="E8" s="265"/>
+      <c r="F8" s="266">
         <f t="shared" si="0"/>
-        <v>48.837209302325576</v>
-      </c>
-      <c r="G8" s="265"/>
+        <v>53.488372093023251</v>
+      </c>
+      <c r="G8" s="267"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="268" t="s">
+      <c r="B9" s="270" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="269"/>
-      <c r="D9" s="262">
+      <c r="C9" s="271"/>
+      <c r="D9" s="264">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=3.0")</f>
-        <v>14</v>
-      </c>
-      <c r="E9" s="263"/>
-      <c r="F9" s="264">
+        <v>15</v>
+      </c>
+      <c r="E9" s="265"/>
+      <c r="F9" s="266">
         <f t="shared" si="0"/>
-        <v>32.558139534883722</v>
-      </c>
-      <c r="G9" s="265"/>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="G9" s="267"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="270" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="269"/>
-      <c r="D10" s="262">
+      <c r="C10" s="271"/>
+      <c r="D10" s="264">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=5.0")</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="263"/>
-      <c r="F10" s="264">
+        <v>2</v>
+      </c>
+      <c r="E10" s="265"/>
+      <c r="F10" s="266">
         <f t="shared" si="0"/>
-        <v>11.627906976744185</v>
-      </c>
-      <c r="G10" s="265"/>
+        <v>4.6511627906976747</v>
+      </c>
+      <c r="G10" s="267"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="269"/>
-      <c r="D11" s="266">
+      <c r="C11" s="271"/>
+      <c r="D11" s="268">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=INC")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="267"/>
-      <c r="F11" s="264">
+      <c r="E11" s="269"/>
+      <c r="F11" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="265"/>
+      <c r="G11" s="267"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="270" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="269"/>
-      <c r="D12" s="266">
+      <c r="C12" s="271"/>
+      <c r="D12" s="268">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$64,"=drp")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="267"/>
-      <c r="F12" s="264">
+      <c r="E12" s="269"/>
+      <c r="F12" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="265"/>
+      <c r="G12" s="267"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="270" t="s">
+      <c r="B13" s="272" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="271"/>
-      <c r="D13" s="258">
+      <c r="C13" s="273"/>
+      <c r="D13" s="260">
         <f>SUM(D7:E12)</f>
         <v>43</v>
       </c>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260">
+      <c r="E13" s="261"/>
+      <c r="F13" s="262">
         <f>SUM(F7:G12)</f>
-        <v>100</v>
-      </c>
-      <c r="G13" s="261"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="G13" s="263"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="51"/>
@@ -21948,16 +21940,16 @@
       <c r="G16" s="51"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="305" t="s">
+      <c r="A17" s="282" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="305"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="305"/>
-      <c r="E17" s="305"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="305"/>
+      <c r="B17" s="282"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="282"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="51"/>
@@ -21969,8 +21961,8 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="53"/>
-      <c r="B19" s="306"/>
-      <c r="C19" s="307"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
       <c r="E19" s="51"/>
       <c r="F19" s="135" t="s">
         <v>101</v>
@@ -21978,12 +21970,12 @@
       <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="308" t="s">
+      <c r="A20" s="283" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="308"/>
-      <c r="C20" s="308"/>
-      <c r="D20" s="308"/>
+      <c r="B20" s="283"/>
+      <c r="C20" s="283"/>
+      <c r="D20" s="283"/>
       <c r="E20" s="51"/>
       <c r="F20" s="136" t="s">
         <v>167</v>
@@ -21991,22 +21983,22 @@
       <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="309" t="s">
+      <c r="A21" s="284" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="309"/>
-      <c r="C21" s="309"/>
-      <c r="D21" s="309"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
       <c r="E21" s="51"/>
       <c r="F21" s="135" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="309"/>
-      <c r="B22" s="309"/>
-      <c r="C22" s="309"/>
-      <c r="D22" s="309"/>
+      <c r="A22" s="284"/>
+      <c r="B22" s="284"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="284"/>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="51"/>
@@ -22033,16 +22025,16 @@
       <c r="G25" s="51"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="305" t="s">
+      <c r="A26" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="305"/>
-      <c r="C26" s="305"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="305"/>
-      <c r="H26" s="305"/>
+      <c r="B26" s="282"/>
+      <c r="C26" s="282"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="282"/>
+      <c r="F26" s="282"/>
+      <c r="G26" s="282"/>
+      <c r="H26" s="282"/>
     </row>
     <row r="27" spans="1:8" ht="15.75">
       <c r="C27" s="51"/>
@@ -22050,40 +22042,40 @@
       <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="235" t="s">
+      <c r="A28" s="237" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="235"/>
-      <c r="H28" s="235"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="237"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="237"/>
+      <c r="H28" s="237"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="272" t="s">
+      <c r="A29" s="274" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="272"/>
-      <c r="C29" s="272"/>
-      <c r="D29" s="272"/>
-      <c r="E29" s="272"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="272"/>
-      <c r="H29" s="272"/>
+      <c r="B29" s="274"/>
+      <c r="C29" s="274"/>
+      <c r="D29" s="274"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="274"/>
+      <c r="G29" s="274"/>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="235" t="s">
+      <c r="A30" s="237" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="235"/>
-      <c r="C30" s="235"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -22216,80 +22208,80 @@
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A7" s="280" t="s">
+      <c r="A7" s="285" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="281"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="282"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="287"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="283" t="str">
+      <c r="A8" s="288" t="str">
         <f>UPPER(REGISTRATION!Q18)</f>
         <v>DEPARTMENT OF INFORMATION TECHNOLOGY</v>
       </c>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="284" t="str">
+      <c r="B8" s="289"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="289" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13,"SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECONDSEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="285"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="289"/>
+      <c r="J8" s="290"/>
     </row>
     <row r="9" spans="1:10" ht="20.25">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="291" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="287"/>
-      <c r="C9" s="288" t="str">
+      <c r="B9" s="292"/>
+      <c r="C9" s="293" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C7," - ",REGISTRATION!C6))</f>
         <v>DCIT 23 - DISCRETE STRUCTURE</v>
       </c>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="287" t="s">
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="292" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="287"/>
-      <c r="I9" s="289" t="str">
+      <c r="H9" s="292"/>
+      <c r="I9" s="294" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ", REGISTRATION!D8,REGISTRATION!E8))</f>
         <v>BSIT 1A</v>
       </c>
-      <c r="J9" s="290"/>
+      <c r="J9" s="295"/>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="296" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="293" t="str">
+      <c r="B10" s="297"/>
+      <c r="C10" s="298" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="292" t="s">
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="297" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="292"/>
-      <c r="I10" s="294" t="str">
+      <c r="H10" s="297"/>
+      <c r="I10" s="299" t="str">
         <f>CONCATENATE(REGISTRATION!J6," ", REGISTRATION!J7," ", REGISTRATION!J8)</f>
         <v>Wednesday 1PM-4PM 332B</v>
       </c>
-      <c r="J10" s="295"/>
+      <c r="J10" s="300"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="99"/>
@@ -22304,33 +22296,33 @@
       <c r="J11" s="100"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="296"/>
-      <c r="B12" s="298" t="s">
+      <c r="A12" s="301"/>
+      <c r="B12" s="303" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="298" t="s">
+      <c r="C12" s="303" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="298" t="s">
+      <c r="D12" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="300" t="s">
+      <c r="E12" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="302" t="s">
+      <c r="F12" s="307" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="303"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="304"/>
+      <c r="G12" s="308"/>
+      <c r="H12" s="308"/>
+      <c r="I12" s="308"/>
+      <c r="J12" s="309"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="297"/>
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="301"/>
+      <c r="A13" s="302"/>
+      <c r="B13" s="304"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="306"/>
       <c r="F13" s="103"/>
       <c r="G13" s="103"/>
       <c r="H13" s="103"/>
